--- a/pred_ohlcv/54_21/2020-01-25 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 XEM ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-33954.19106073999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-44443.44186073999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-74606.60966073998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-70949.14116073998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-71199.22156073998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-83399.22156073998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-56795.40697733997</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-107470.18417734</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-98246.75138622997</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-98942.77958622997</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-95941.87938622996</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-95941.87938622996</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-103198.80498623</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-104285.76148623</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-101305.47188623</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-101305.47188623</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-102904.25128623</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-93104.25128622996</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-130504.25128623</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-129220.31178623</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-128683.31178623</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-128683.31178623</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-127955.94968623</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-106120.31908623</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-106811.57208623</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-105388.39098623</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-101359.91568623</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-100629.41028623</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-95675.99778622996</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>11249.56431377004</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>11179.56431377004</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>11260.56431377004</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>11355.56431377004</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>11355.56431377004</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-17484.45906990997</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-17984.45906990997</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-18370.76276990997</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-18370.76276990997</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-19044.66586990997</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-39977.42536990996</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-39315.00116990996</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-36901.38416990996</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-36901.38416990996</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-34701.38416990996</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-30969.60616990997</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 XEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 XEM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-77489.13746073999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-65489.13746073999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-33954.19106073999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-45557.30756074</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-44443.39636073999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-44432.47686073999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-44443.44186073999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-74606.60966073998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-70949.14116073998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-71199.22156073998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-83399.22156073998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-75070.04086073999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-114825.64516074</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-115366.34906074</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-56076.36157733997</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-56076.36157733997</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-56795.40697733997</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-108640.18417734</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-107470.18417734</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-98246.75138622997</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-98942.77958622997</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-95941.87938622996</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-95941.87938622996</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-103198.80498623</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-104285.76148623</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-101305.47188623</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-102904.25128623</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-93104.25128622996</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-130504.25128623</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-129220.31178623</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-128683.31178623</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-101359.91568623</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-100629.41028623</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-95675.99778622996</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-95675.99778622996</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>11249.56431377004</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>11179.56431377004</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>11260.56431377004</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>11355.56431377004</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>11355.56431377004</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-17484.45906990997</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-17984.45906990997</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-18370.76276990997</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-18370.76276990997</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-19044.66586990997</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-39977.42536990996</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-39315.00116990996</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-36901.38416990996</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-36901.38416990996</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-34701.38416990996</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-30969.60616990997</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
